--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3306171.565004931</v>
+        <v>3304283.983488529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600475.0788704338</v>
+        <v>154119.5666277583</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8602194.209987786</v>
+        <v>8602194.209987784</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>86.90662277591575</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>139.6528551206848</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>99.3876534833059</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.50320101340354</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.345527881612782</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>211.5007599454561</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>167.6668193680889</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0426595656933</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.24586529719071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>17.85500287309057</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>100.0936033218533</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>136.8736401074753</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>161.8175117958955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>210.3318966255813</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>67.73429602643105</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>96.93091766212102</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>94.16481274941205</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>43.67351014082015</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>21.8477370651219</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1056.889695563554</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>687.9271786231425</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>687.9271786231425</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>302.1389260248982</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>295.1934252756948</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.489535627676</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.489535627676</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
         <v>2627.754532504893</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.0064718412582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>195.0064718412582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>195.0064718412582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>195.0064718412582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>195.0064718412582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>195.0064718412582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0064718412582</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>195.0064718412582</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.0064718412582</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2649.166059691552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2649.166059691552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.0749338020197</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="C7" t="n">
-        <v>485.0749338020197</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0749338020197</v>
+        <v>109.0394334063743</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>109.0394334063743</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>109.0394334063743</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>109.0394334063743</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>485.0749338020197</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>485.0749338020197</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W7" t="n">
-        <v>485.0749338020197</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X7" t="n">
-        <v>485.0749338020197</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y7" t="n">
-        <v>485.0749338020197</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.544000781331</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.58148384092</v>
+        <v>1083.098704810765</v>
       </c>
       <c r="D8" t="n">
-        <v>1206.315785234169</v>
+        <v>724.8330062040147</v>
       </c>
       <c r="E8" t="n">
-        <v>820.5275326359249</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>409.5416278463173</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940986</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117055</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521275</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606511</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.210845262961</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.210845262961</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.639264154687</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1348.33044553573</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.545030325236</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>835.416391538794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>656.9717466008788</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>428.9821957028614</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M18" t="n">
-        <v>334.288126757867</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>496.3514742750687</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>496.3514742750687</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>346.234834862733</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>198.3217412803398</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>677.9999391053084</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,16 +5747,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,31 +5765,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>332.4477678248118</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>562.410873693161</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1330.779020085623</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013845</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013845</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>235.4732935890488</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>235.4732935890488</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247864</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247864</v>
+        <v>675.007103038345</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188995</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013845</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013845</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013845</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>463.2137177573978</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.438140992646</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1086.539799235494</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>1086.539799235494</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V25" t="n">
-        <v>831.8553110296066</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W25" t="n">
-        <v>542.438140992646</v>
+        <v>641.0327727841204</v>
       </c>
       <c r="X25" t="n">
-        <v>542.438140992646</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.438140992646</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1201.086242632928</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>911.9576038464866</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V28" t="n">
-        <v>657.2731156405997</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W28" t="n">
-        <v>657.2731156405997</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>429.2835647425824</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>429.2835647425824</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542189</v>
+        <v>439.5324299542179</v>
       </c>
       <c r="C31" t="n">
-        <v>395.4177732463197</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4177732463197</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463197</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
@@ -6625,7 +6625,7 @@
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962053</v>
@@ -6652,19 +6652,19 @@
         <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652474</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030877</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>160.0174871669323</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>570.9077560114449</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028583</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504514</v>
@@ -6850,19 +6850,19 @@
         <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>495.7418540215911</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1109.63892377848</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649685</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899877</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083212</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,19 +7397,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,34 +7546,34 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7631,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>268.9113090133609</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9495,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>197.0685645400906</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>193.4637900918464</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>268.6679954635004</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.32744470107797</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>8.547407915455917</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>124.7054865406955</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11.21566443280797</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>218.7887023101599</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>124.6166433962682</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>192.358185587179</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.37005432925054</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.3700543292523</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752620.9540887499</v>
+        <v>752620.9540887498</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196954</v>
+        <v>671256.5266196955</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.4601380328</v>
       </c>
       <c r="N2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="O2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="P2" t="n">
         <v>677359.4601380328</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.4601380329</v>
-      </c>
-      <c r="P2" t="n">
-        <v>677359.4601380327</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759075</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>787.793690575841</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758411</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758514</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758785</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205393</v>
+        <v>-134526.6363205395</v>
       </c>
       <c r="C6" t="n">
+        <v>455441.2428940053</v>
+      </c>
+      <c r="D6" t="n">
         <v>455441.2428940051</v>
       </c>
-      <c r="D6" t="n">
-        <v>455441.2428940049</v>
-      </c>
       <c r="E6" t="n">
-        <v>27262.79245103089</v>
+        <v>27165.33332505857</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279266</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279267</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279268</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279271</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353339</v>
+        <v>375902.1506093616</v>
       </c>
       <c r="K6" t="n">
-        <v>511513.2965818545</v>
+        <v>511494.8028439203</v>
       </c>
       <c r="L6" t="n">
-        <v>546094.8665852442</v>
+        <v>546094.8665852444</v>
       </c>
       <c r="M6" t="n">
-        <v>421636.758152274</v>
+        <v>421636.7581522739</v>
       </c>
       <c r="N6" t="n">
-        <v>556437.773386111</v>
+        <v>556437.7733861113</v>
       </c>
       <c r="O6" t="n">
-        <v>556437.7733861111</v>
+        <v>556437.7733861114</v>
       </c>
       <c r="P6" t="n">
-        <v>512275.1680832652</v>
+        <v>512275.1680832655</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.1318901296406</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964071</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108354</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990176</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>326.8775472448792</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.5180337211103</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>265.8852382877017</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.97520156140817</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>146.8253609601824</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>74.78111429652165</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>214.2635507041729</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>61.74151045510166</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634975</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.735996994178907e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31376,16 +31376,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>11.76595806653307</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>24.03312854020663</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776663</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32318,16 +32318,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>47.93166030412431</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32336,7 +32336,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32473,7 +32473,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>110.9829457643319</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32570,10 +32570,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32789,28 +32789,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>137.4075963926898</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33263,34 +33263,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>10.78379835447009</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,16 +33427,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,10 +33497,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>64.1813344642845</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -33509,25 +33509,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>340.8546090773502</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>107.9252528799045</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,34 +33974,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>100.5826050876806</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4309478731436</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>451.2905241942777</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34448,34 +34448,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>109.8091321057578</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>126.7772750913426</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>347.6041583681882</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700517</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>299.1977351364094</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>237.6067438025515</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>369.6935619162747</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>54.47232009564618</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>334.3548281824517</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>63.43474313802665</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>592.1206839096353</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>234.5490509181241</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>424.1536349156622</v>
       </c>
       <c r="N39" t="n">
-        <v>728.4316101333638</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,10 +37716,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>799.291186454498</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>457.809794365978</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
